--- a/Теория вероятности/Нормальное распределение 19-ИВТ-3 Игнаков К.М..xlsx
+++ b/Теория вероятности/Нормальное распределение 19-ИВТ-3 Игнаков К.М..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Теория вероятности/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/ВУЗ/Программирование/institute/Теория вероятности/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBD9CA0-642A-7B4D-A4DE-338FB19E8AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A821A5-B863-384E-AC4D-2285C6827D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="26580" windowHeight="16340" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>х</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>σ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dx = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ср. квадр. Откл. = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мода = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медиана = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эксцесс = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассиметрия = </t>
   </si>
 </sst>
 </file>
@@ -180,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -262,51 +283,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
@@ -385,7 +365,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -399,24 +379,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -527,108 +504,474 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$24</c:f>
+              <c:f>Лист1!$A$10:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-12.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-9.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-6.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>-3.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="34">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="37">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="43">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="55">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$10:$C$24</c:f>
+              <c:f>Лист1!$C$10:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
+                  <c:v>2.0252942832744286E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4293864025285134E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4156295821516289E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5899200141810918E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8543396950730421E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1240456738902849E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9557317157809919E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1245738687156055E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4820152902099967E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3279137023018252E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1123620798546141E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2587669962939214E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4610075254961789E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5690118354102114E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6009021720694023E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.9089423168192E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>5.140929987637018E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8365865147670174E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.4772828039793357E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2.4020332548697408E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.798662007932481E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5.8427668311895132E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="22">
+                  <c:v>8.7406296979031604E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2717541168805994E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1.7996988837729353E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>2.4770387852997702E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3159046264249557E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4.3172531888630579E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
+                  <c:v>5.4670024891997876E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.7332895184686298E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>8.0656908173047798E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>9.3970625136767516E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10648266850745074</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.11735510892143317</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="34">
+                  <c:v>0.12579440923099772</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13114657203397997</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.13298076013381088</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="37">
+                  <c:v>0.13114657203397997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12579440923099772</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.11735510892143317</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="40">
+                  <c:v>0.10648266850745074</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3970625136767516E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>8.0656908173047798E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="43">
+                  <c:v>6.7332895184686298E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4670024891997876E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>4.3172531888630579E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="46">
+                  <c:v>3.3159046264249557E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4770387852997702E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>1.7996988837729353E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="49">
+                  <c:v>1.2717541168805994E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.7406296979031604E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5.8427668311895132E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="52">
+                  <c:v>3.798662007932481E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4020332548697408E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1.4772828039793357E-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="55">
+                  <c:v>8.8365865147670174E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.140929987637018E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>2.9089423168192E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6009021720694023E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.5690118354102114E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.4610075254961789E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2587669962939214E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1123620798546141E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.3279137023018252E-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4820152902099967E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1245738687156055E-6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9557317157809919E-7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1240456738902849E-7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8543396950730421E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5899200141810918E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4156295821516289E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4293864025285134E-9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0252942832744286E-9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3478754658720721E-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5928160226898982E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.8985220492095073E-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,108 +1002,474 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$10:$A$24</c:f>
+              <c:f>Лист1!$A$10:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-12.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>-9.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="22">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-6.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>-3.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="34">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="37">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="43">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="49">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="55">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$10:$B$24</c:f>
+              <c:f>Лист1!$B$10:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
+                  <c:v>9.8658764503769437E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7165437370881153E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2801100739140595E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8989562465887691E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8213033651141262E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1915285332013904E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8665157187919333E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7132845580909362E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.530626736531063E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3976731247300535E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3434238368946899E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.545429688229596E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1671241833119857E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.3209231868402554E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.228663899651522E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.3262907903552504E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="16">
+                  <c:v>4.2906033319683703E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7098478446997558E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.3498980316300933E-3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
+                  <c:v>2.3032661316958821E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8303805675897356E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6.2096653257761331E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="22">
+                  <c:v>9.8153286286453353E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5130140010235814E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2.2750131948179191E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>3.337650758481725E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7790352272814703E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>6.6807201268858057E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="28">
+                  <c:v>9.1211219725867876E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.12167250457438125</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.15865525393145699</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="31">
+                  <c:v>0.20232838096364303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25249253754692291</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.30853753872598688</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="34">
+                  <c:v>0.36944134018176361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43381616738909634</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="37">
+                  <c:v>0.56618383261090366</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63055865981823644</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.69146246127401312</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="40">
+                  <c:v>0.74750746245307709</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79767161903635697</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.84134474606854304</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="43">
+                  <c:v>0.87832749542561872</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90878878027413212</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0.93319279873114191</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="46">
+                  <c:v>0.9522096477271853</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.96662349241518275</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.97724986805182079</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="49">
+                  <c:v>0.98486985998976417</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.99018467137135469</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0.99379033467422384</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="52">
+                  <c:v>0.99616961943241022</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99769673386830415</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0.9986501019683699</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="55">
+                  <c:v>0.99922901521552998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99957093966680322</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0.99976737092096446</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99987713361003483</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99993679076813158</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99996832875816688</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99998454570311768</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.9999926565761631</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99999660232687526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99999846937326342</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99999932867154417</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99999971334842808</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.99999988084714664</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.99999995178696632</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99999998101043752</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999271988993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.99999999728345623</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.9999999990134123</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99999999965127717</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99999999988003974</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99999999995984001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C24"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -1238,18 +1947,18 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>-2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1257,10 +1966,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1271,7 +1980,7 @@
       <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6"/>
@@ -1283,24 +1992,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="7"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="19"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1310,248 +2019,1131 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10">
-        <f>B3-3.5*B4</f>
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" ref="B10:B24" si="0">_xlfn.NORM.DIST(A10,$B$3,$B$4,TRUE)</f>
-        <v>2.3262907903552504E-4</v>
+        <f t="shared" ref="B10:B73" si="0">_xlfn.NORM.DIST(A10,$B$3,$B$4,TRUE)</f>
+        <v>9.8658764503769437E-10</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" ref="C10:C24" si="1">_xlfn.NORM.DIST($A10,B$3,B$4,FALSE)</f>
-        <v>2.9089423168192E-4</v>
+        <f t="shared" ref="C10:C73" si="1">_xlfn.NORM.DIST($A10,B$3,B$4,FALSE)</f>
+        <v>2.0252942832744286E-9</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="15">
-        <f>A10+$B$4/2</f>
-        <v>-11</v>
+      <c r="A11" s="14">
+        <f>A10+0.5</f>
+        <v>-19.5</v>
       </c>
       <c r="B11" s="10">
         <f t="shared" si="0"/>
-        <v>1.3498980316300933E-3</v>
-      </c>
-      <c r="C11" s="14">
-        <f t="shared" si="1"/>
-        <v>1.4772828039793357E-3</v>
+        <v>2.7165437370881153E-9</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4293864025285134E-9</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13">
-        <f t="shared" ref="A12:A24" si="2">A11+$B$4/2</f>
-        <v>-9.5</v>
-      </c>
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
-        <v>6.2096653257761331E-3</v>
+      <c r="A12" s="14">
+        <f t="shared" ref="A12:A75" si="2">A11+0.5</f>
+        <v>-19</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="0"/>
+        <v>7.2801100739140595E-9</v>
       </c>
       <c r="C12" s="10">
         <f t="shared" si="1"/>
-        <v>5.8427668311895132E-3</v>
+        <v>1.4156295821516289E-8</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="B13" s="16">
-        <f t="shared" si="0"/>
-        <v>2.2750131948179191E-2</v>
+      <c r="A13" s="14">
+        <f t="shared" si="2"/>
+        <v>-18.5</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8989562465887691E-8</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" si="1"/>
-        <v>1.7996988837729353E-2</v>
+        <v>3.5899200141810918E-8</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
-        <f t="shared" si="2"/>
-        <v>-6.5</v>
+      <c r="A14" s="14">
+        <f t="shared" si="2"/>
+        <v>-18</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>6.6807201268858057E-2</v>
+        <v>4.8213033651141262E-8</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="1"/>
-        <v>4.3172531888630579E-2</v>
+        <v>8.8543396950730421E-8</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="B15" s="17">
-        <f t="shared" si="0"/>
-        <v>0.15865525393145699</v>
-      </c>
-      <c r="C15" s="14">
-        <f t="shared" si="1"/>
-        <v>8.0656908173047798E-2</v>
+        <v>-17.5</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1915285332013904E-7</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1240456738902849E-7</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14">
         <f t="shared" si="2"/>
-        <v>-3.5</v>
-      </c>
-      <c r="B16" s="17">
-        <f t="shared" si="0"/>
-        <v>0.30853753872598688</v>
-      </c>
-      <c r="C16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.11735510892143317</v>
+        <v>-17</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8665157187919333E-7</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9557317157809919E-7</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10">
-        <f t="shared" si="2"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14">
+        <f t="shared" si="2"/>
+        <v>-16.5</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>6.7132845580909362E-7</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1245738687156055E-6</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.530626736531063E-6</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4820152902099967E-6</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14">
+        <f t="shared" si="2"/>
+        <v>-15.5</v>
+      </c>
+      <c r="B19" s="19">
+        <f t="shared" si="0"/>
+        <v>3.3976731247300535E-6</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>5.3279137023018252E-6</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="B20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.3434238368946899E-6</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1123620798546141E-5</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14">
+        <f t="shared" si="2"/>
+        <v>-14.5</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>1.545429688229596E-5</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2587669962939214E-5</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1671241833119857E-5</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4610075254961789E-5</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14">
+        <f t="shared" si="2"/>
+        <v>-13.5</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3209231868402554E-5</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5690118354102114E-5</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="B24" s="18">
+        <f t="shared" si="0"/>
+        <v>1.228663899651522E-4</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6009021720694023E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14">
+        <f t="shared" si="2"/>
+        <v>-12.5</v>
+      </c>
+      <c r="B25" s="18">
+        <f t="shared" si="0"/>
+        <v>2.3262907903552504E-4</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9089423168192E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="14">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="B26" s="18">
+        <f t="shared" si="0"/>
+        <v>4.2906033319683703E-4</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="1"/>
+        <v>5.140929987637018E-4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
         <v>-2</v>
       </c>
-      <c r="B17" s="16">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" si="1"/>
-        <v>0.13298076013381088</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="19">
-        <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.69146246127401312</v>
-      </c>
-      <c r="C18" s="12">
-        <f t="shared" si="1"/>
-        <v>0.11735510892143317</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B19" s="22">
-        <f t="shared" si="0"/>
-        <v>0.84134474606854304</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="1"/>
-        <v>8.0656908173047798E-2</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="B20" s="17">
-        <f t="shared" si="0"/>
-        <v>0.93319279873114191</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" si="1"/>
-        <v>4.3172531888630579E-2</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B21" s="16">
-        <f t="shared" si="0"/>
-        <v>0.97724986805182079</v>
-      </c>
-      <c r="C21" s="10">
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="14">
+        <f t="shared" si="2"/>
+        <v>-11.5</v>
+      </c>
+      <c r="B27" s="18">
+        <f t="shared" si="0"/>
+        <v>7.7098478446997558E-4</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8365865147670174E-4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="14">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="B28" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3498980316300933E-3</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4772828039793357E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="14">
+        <f t="shared" si="2"/>
+        <v>-10.5</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" si="0"/>
+        <v>2.3032661316958821E-3</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4020332548697408E-3</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="14">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="B30" s="18">
+        <f t="shared" si="0"/>
+        <v>3.8303805675897356E-3</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="1"/>
+        <v>3.798662007932481E-3</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="14">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+      <c r="B31" s="18">
+        <f t="shared" si="0"/>
+        <v>6.2096653257761331E-3</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8427668311895132E-3</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="14">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="B32" s="18">
+        <f t="shared" si="0"/>
+        <v>9.8153286286453353E-3</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="1"/>
+        <v>8.7406296979031604E-3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14">
+        <f t="shared" si="2"/>
+        <v>-8.5</v>
+      </c>
+      <c r="B33" s="18">
+        <f t="shared" si="0"/>
+        <v>1.5130140010235814E-2</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2717541168805994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="B34" s="18">
+        <f t="shared" si="0"/>
+        <v>2.2750131948179191E-2</v>
+      </c>
+      <c r="C34" s="10">
         <f t="shared" si="1"/>
         <v>1.7996988837729353E-2</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="21">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="B22" s="16">
-        <f t="shared" si="0"/>
-        <v>0.99379033467422384</v>
-      </c>
-      <c r="C22" s="10">
-        <f t="shared" si="1"/>
-        <v>5.8427668311895132E-3</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="19">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.9986501019683699</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" si="1"/>
-        <v>1.4772828039793357E-3</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="B24" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99976737092096446</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9089423168192E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="D31" s="5"/>
-    </row>
-    <row r="34" spans="4:5">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="1:5">
+      <c r="A35" s="14">
+        <f t="shared" si="2"/>
+        <v>-7.5</v>
+      </c>
+      <c r="B35" s="18">
+        <f t="shared" si="0"/>
+        <v>3.337650758481725E-2</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4770387852997702E-2</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="1:5">
+      <c r="A36" s="14">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="B36" s="18">
+        <f t="shared" si="0"/>
+        <v>4.7790352272814703E-2</v>
+      </c>
+      <c r="C36" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3159046264249557E-2</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="14">
+        <f t="shared" si="2"/>
+        <v>-6.5</v>
+      </c>
+      <c r="B37" s="18">
+        <f t="shared" si="0"/>
+        <v>6.6807201268858057E-2</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3172531888630579E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="14">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="B38" s="18">
+        <f t="shared" si="0"/>
+        <v>9.1211219725867876E-2</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="1"/>
+        <v>5.4670024891997876E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="14">
+        <f t="shared" si="2"/>
+        <v>-5.5</v>
+      </c>
+      <c r="B39" s="18">
+        <f t="shared" si="0"/>
+        <v>0.12167250457438125</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7332895184686298E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="B40" s="18">
+        <f t="shared" si="0"/>
+        <v>0.15865525393145699</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0656908173047798E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14">
+        <f t="shared" si="2"/>
+        <v>-4.5</v>
+      </c>
+      <c r="B41" s="18">
+        <f t="shared" si="0"/>
+        <v>0.20232838096364303</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" si="1"/>
+        <v>9.3970625136767516E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="B42" s="18">
+        <f t="shared" si="0"/>
+        <v>0.25249253754692291</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10648266850745074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
+      <c r="B43" s="18">
+        <f t="shared" si="0"/>
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11735510892143317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="B44" s="18">
+        <f t="shared" si="0"/>
+        <v>0.36944134018176361</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" si="1"/>
+        <v>0.12579440923099772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="B45" s="18">
+        <f t="shared" si="0"/>
+        <v>0.43381616738909634</v>
+      </c>
+      <c r="C45" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13114657203397997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="B46" s="18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13298076013381088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+      <c r="B47" s="18">
+        <f t="shared" si="0"/>
+        <v>0.56618383261090366</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="1"/>
+        <v>0.13114657203397997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="14">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="B48" s="18">
+        <f t="shared" si="0"/>
+        <v>0.63055865981823644</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="1"/>
+        <v>0.12579440923099772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="B49" s="18">
+        <f t="shared" si="0"/>
+        <v>0.69146246127401312</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="1"/>
+        <v>0.11735510892143317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B50" s="18">
+        <f t="shared" si="0"/>
+        <v>0.74750746245307709</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="1"/>
+        <v>0.10648266850745074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="14">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="B51" s="18">
+        <f t="shared" si="0"/>
+        <v>0.79767161903635697</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" si="1"/>
+        <v>9.3970625136767516E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B52" s="18">
+        <f t="shared" si="0"/>
+        <v>0.84134474606854304</v>
+      </c>
+      <c r="C52" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0656908173047798E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="B53" s="18">
+        <f t="shared" si="0"/>
+        <v>0.87832749542561872</v>
+      </c>
+      <c r="C53" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7332895184686298E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="18">
+        <f t="shared" si="0"/>
+        <v>0.90878878027413212</v>
+      </c>
+      <c r="C54" s="10">
+        <f t="shared" si="1"/>
+        <v>5.4670024891997876E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="14">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="B55" s="18">
+        <f t="shared" si="0"/>
+        <v>0.93319279873114191</v>
+      </c>
+      <c r="C55" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3172531888630579E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B56" s="18">
+        <f t="shared" si="0"/>
+        <v>0.9522096477271853</v>
+      </c>
+      <c r="C56" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3159046264249557E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="B57" s="18">
+        <f t="shared" si="0"/>
+        <v>0.96662349241518275</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4770387852997702E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B58" s="18">
+        <f t="shared" si="0"/>
+        <v>0.97724986805182079</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7996988837729353E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="B59" s="18">
+        <f t="shared" si="0"/>
+        <v>0.98486985998976417</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2717541168805994E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B60" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99018467137135469</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="1"/>
+        <v>8.7406296979031604E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="B61" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99379033467422384</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8427668311895132E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B62" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99616961943241022</v>
+      </c>
+      <c r="C62" s="10">
+        <f t="shared" si="1"/>
+        <v>3.798662007932481E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="14">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="B63" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99769673386830415</v>
+      </c>
+      <c r="C63" s="10">
+        <f t="shared" si="1"/>
+        <v>2.4020332548697408E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B64" s="18">
+        <f t="shared" si="0"/>
+        <v>0.9986501019683699</v>
+      </c>
+      <c r="C64" s="10">
+        <f t="shared" si="1"/>
+        <v>1.4772828039793357E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="14">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="B65" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99922901521552998</v>
+      </c>
+      <c r="C65" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8365865147670174E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B66" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99957093966680322</v>
+      </c>
+      <c r="C66" s="10">
+        <f t="shared" si="1"/>
+        <v>5.140929987637018E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="14">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="B67" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99976737092096446</v>
+      </c>
+      <c r="C67" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9089423168192E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B68" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99987713361003483</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6009021720694023E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="14">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="B69" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99993679076813158</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="1"/>
+        <v>8.5690118354102114E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B70" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99996832875816688</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4610075254961789E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="14">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+      <c r="B71" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99998454570311768</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2587669962939214E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B72" s="18">
+        <f t="shared" si="0"/>
+        <v>0.9999926565761631</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1123620798546141E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="14">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="B73" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99999660232687526</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="1"/>
+        <v>5.3279137023018252E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B74" s="18">
+        <f t="shared" ref="B74:B85" si="3">_xlfn.NORM.DIST(A74,$B$3,$B$4,TRUE)</f>
+        <v>0.99999846937326342</v>
+      </c>
+      <c r="C74" s="10">
+        <f t="shared" ref="C74:C85" si="4">_xlfn.NORM.DIST($A74,B$3,B$4,FALSE)</f>
+        <v>2.4820152902099967E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="14">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="B75" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999932867154417</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" si="4"/>
+        <v>1.1245738687156055E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="14">
+        <f t="shared" ref="A76:A85" si="5">A75+0.5</f>
+        <v>13</v>
+      </c>
+      <c r="B76" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999971334842808</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="4"/>
+        <v>4.9557317157809919E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="14">
+        <f t="shared" si="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="B77" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999988084714664</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="4"/>
+        <v>2.1240456738902849E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="14">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B78" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999995178696632</v>
+      </c>
+      <c r="C78" s="10">
+        <f t="shared" si="4"/>
+        <v>8.8543396950730421E-8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="14">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="B79" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999998101043752</v>
+      </c>
+      <c r="C79" s="10">
+        <f t="shared" si="4"/>
+        <v>3.5899200141810918E-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="14">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B80" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999999271988993</v>
+      </c>
+      <c r="C80" s="10">
+        <f t="shared" si="4"/>
+        <v>1.4156295821516289E-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="14">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="B81" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999999728345623</v>
+      </c>
+      <c r="C81" s="10">
+        <f t="shared" si="4"/>
+        <v>5.4293864025285134E-9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="14">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B82" s="18">
+        <f t="shared" si="3"/>
+        <v>0.9999999990134123</v>
+      </c>
+      <c r="C82" s="10">
+        <f t="shared" si="4"/>
+        <v>2.0252942832744286E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="14">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="B83" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999999965127717</v>
+      </c>
+      <c r="C83" s="10">
+        <f t="shared" si="4"/>
+        <v>7.3478754658720721E-10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="14">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B84" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999999988003974</v>
+      </c>
+      <c r="C84" s="10">
+        <f t="shared" si="4"/>
+        <v>2.5928160226898982E-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="14">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="B85" s="18">
+        <f t="shared" si="3"/>
+        <v>0.99999999995984001</v>
+      </c>
+      <c r="C85" s="10">
+        <f t="shared" si="4"/>
+        <v>8.8985220492095073E-11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
